--- a/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
+++ b/natmiOut/OldD4/LR-pairs_lrc2p/Efnb1-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -80,6 +80,12 @@
   </si>
   <si>
     <t>FAPs</t>
+  </si>
+  <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>sCs</t>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H2">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I2">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J2">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.50463587512244</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N2">
-        <v>1.50463587512244</v>
+        <v>5.626702</v>
       </c>
       <c r="O2">
-        <v>0.9059785099995814</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P2">
-        <v>0.9059785099995814</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q2">
-        <v>15.73896599909025</v>
+        <v>19.73403552444578</v>
       </c>
       <c r="R2">
-        <v>15.73896599909025</v>
+        <v>177.606319720012</v>
       </c>
       <c r="S2">
-        <v>0.4594742410650063</v>
+        <v>0.4374308020456971</v>
       </c>
       <c r="T2">
-        <v>0.4594742410650063</v>
+        <v>0.4673903573569941</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,123 +587,123 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" t="s">
         <v>23</v>
       </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>22</v>
-      </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>10.4603155217268</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H3">
-        <v>10.4603155217268</v>
+        <v>31.564906</v>
       </c>
       <c r="I3">
-        <v>0.5071579910490577</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J3">
-        <v>0.5071579910490577</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.156149517152632</v>
+        <v>0.010998</v>
       </c>
       <c r="N3">
-        <v>0.156149517152632</v>
+        <v>0.032994</v>
       </c>
       <c r="O3">
-        <v>0.09402149000041862</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P3">
-        <v>0.09402149000041862</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q3">
-        <v>1.633373217981822</v>
+        <v>0.115716945396</v>
       </c>
       <c r="R3">
-        <v>1.633373217981822</v>
+        <v>1.041452508564</v>
       </c>
       <c r="S3">
-        <v>0.04768374998405137</v>
+        <v>0.002565017995034344</v>
       </c>
       <c r="T3">
-        <v>0.04768374998405137</v>
+        <v>0.002740695606526997</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
         <v>24</v>
       </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>7.66578613037009</v>
+        <v>10.52163533333333</v>
       </c>
       <c r="H4">
-        <v>7.66578613037009</v>
+        <v>31.564906</v>
       </c>
       <c r="I4">
-        <v>0.371668013800833</v>
+        <v>0.4782136086181363</v>
       </c>
       <c r="J4">
-        <v>0.371668013800833</v>
+        <v>0.4973545982298819</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.50463587512244</v>
+        <v>0.163866</v>
       </c>
       <c r="N4">
-        <v>1.50463587512244</v>
+        <v>0.327732</v>
       </c>
       <c r="O4">
-        <v>0.9059785099995814</v>
+        <v>0.07991781891745053</v>
       </c>
       <c r="P4">
-        <v>0.9059785099995814</v>
+        <v>0.05473669161449624</v>
       </c>
       <c r="Q4">
-        <v>11.53421682277086</v>
+        <v>1.724138295532</v>
       </c>
       <c r="R4">
-        <v>11.53421682277086</v>
+        <v>10.344829773192</v>
       </c>
       <c r="S4">
-        <v>0.3367232333577826</v>
+        <v>0.03821778857740478</v>
       </c>
       <c r="T4">
-        <v>0.3367232333577826</v>
+        <v>0.02722354526636073</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,185 +711,743 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>7.66578613037009</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H5">
-        <v>7.66578613037009</v>
+        <v>25.529465</v>
       </c>
       <c r="I5">
-        <v>0.371668013800833</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J5">
-        <v>0.371668013800833</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.156149517152632</v>
+        <v>1.875567333333333</v>
       </c>
       <c r="N5">
-        <v>0.156149517152632</v>
+        <v>5.626702</v>
       </c>
       <c r="O5">
-        <v>0.09402149000041862</v>
+        <v>0.9147184316015459</v>
       </c>
       <c r="P5">
-        <v>0.09402149000041862</v>
+        <v>0.9397527619538806</v>
       </c>
       <c r="Q5">
-        <v>1.197008802852633</v>
+        <v>15.96074353049222</v>
       </c>
       <c r="R5">
-        <v>1.197008802852633</v>
+        <v>143.64669177443</v>
       </c>
       <c r="S5">
-        <v>0.03494478044305047</v>
+        <v>0.3537908318417787</v>
       </c>
       <c r="T5">
-        <v>0.03494478044305047</v>
+        <v>0.3780219009517365</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6" t="s">
         <v>23</v>
       </c>
-      <c r="C6" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" t="s">
-        <v>20</v>
-      </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.49925712434595</v>
+        <v>8.509821666666667</v>
       </c>
       <c r="H6">
-        <v>2.49925712434595</v>
+        <v>25.529465</v>
       </c>
       <c r="I6">
-        <v>0.1211739951501094</v>
+        <v>0.3867756673737729</v>
       </c>
       <c r="J6">
-        <v>0.1211739951501094</v>
+        <v>0.4022567597096229</v>
       </c>
       <c r="K6">
         <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>1.50463587512244</v>
+        <v>0.010998</v>
       </c>
       <c r="N6">
-        <v>1.50463587512244</v>
+        <v>0.032994</v>
       </c>
       <c r="O6">
-        <v>0.9059785099995814</v>
+        <v>0.005363749481003509</v>
       </c>
       <c r="P6">
-        <v>0.9059785099995814</v>
+        <v>0.005510546431623061</v>
       </c>
       <c r="Q6">
-        <v>3.760471930446261</v>
+        <v>0.09359101869000001</v>
       </c>
       <c r="R6">
-        <v>3.760471930446261</v>
+        <v>0.8423191682100001</v>
       </c>
       <c r="S6">
-        <v>0.1097810355767926</v>
+        <v>0.00207456778514086</v>
       </c>
       <c r="T6">
-        <v>0.1097810355767926</v>
+        <v>0.002216654551814118</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>8.509821666666667</v>
+      </c>
+      <c r="H7">
+        <v>25.529465</v>
+      </c>
+      <c r="I7">
+        <v>0.3867756673737729</v>
+      </c>
+      <c r="J7">
+        <v>0.4022567597096229</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.163866</v>
+      </c>
+      <c r="N7">
+        <v>0.327732</v>
+      </c>
+      <c r="O7">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P7">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q7">
+        <v>1.39447043723</v>
+      </c>
+      <c r="R7">
+        <v>8.366822623380001</v>
+      </c>
+      <c r="S7">
+        <v>0.03091026774685326</v>
+      </c>
+      <c r="T7">
+        <v>0.02201820420607215</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H8">
+        <v>0.344699</v>
+      </c>
+      <c r="I8">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J8">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N8">
+        <v>5.626702</v>
+      </c>
+      <c r="O8">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P8">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q8">
+        <v>0.2155020614108889</v>
+      </c>
+      <c r="R8">
+        <v>1.939518552698</v>
+      </c>
+      <c r="S8">
+        <v>0.004776886078303219</v>
+      </c>
+      <c r="T8">
+        <v>0.005104054128676909</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>25</v>
+      </c>
+      <c r="C9" t="s">
+        <v>26</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H9">
+        <v>0.344699</v>
+      </c>
+      <c r="I9">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J9">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.010998</v>
+      </c>
+      <c r="N9">
+        <v>0.032994</v>
+      </c>
+      <c r="O9">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P9">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q9">
+        <v>0.001263666534</v>
+      </c>
+      <c r="R9">
+        <v>0.011372998806</v>
+      </c>
+      <c r="S9">
+        <v>2.801082752694854E-05</v>
+      </c>
+      <c r="T9">
+        <v>2.99292839609359E-05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" t="s">
         <v>24</v>
       </c>
-      <c r="D7" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="H7">
-        <v>2.49925712434595</v>
-      </c>
-      <c r="I7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="J7">
-        <v>0.1211739951501094</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="N7">
-        <v>0.156149517152632</v>
-      </c>
-      <c r="O7">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="P7">
-        <v>0.09402149000041862</v>
-      </c>
-      <c r="Q7">
-        <v>0.3902577932068957</v>
-      </c>
-      <c r="R7">
-        <v>0.3902577932068957</v>
-      </c>
-      <c r="S7">
-        <v>0.01139295957331678</v>
-      </c>
-      <c r="T7">
-        <v>0.01139295957331678</v>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.1148996666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.344699</v>
+      </c>
+      <c r="I10">
+        <v>0.005222247538993557</v>
+      </c>
+      <c r="J10">
+        <v>0.005431273346901209</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.163866</v>
+      </c>
+      <c r="N10">
+        <v>0.327732</v>
+      </c>
+      <c r="O10">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P10">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q10">
+        <v>0.018828148778</v>
+      </c>
+      <c r="R10">
+        <v>0.112968892668</v>
+      </c>
+      <c r="S10">
+        <v>0.0004173506331633887</v>
+      </c>
+      <c r="T10">
+        <v>0.0002972899342633644</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>23</v>
+      </c>
+      <c r="B11" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" t="s">
+        <v>26</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.315325</v>
+      </c>
+      <c r="H11">
+        <v>0.945975</v>
+      </c>
+      <c r="I11">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J11">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N11">
+        <v>5.626702</v>
+      </c>
+      <c r="O11">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P11">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q11">
+        <v>0.5914132693833334</v>
+      </c>
+      <c r="R11">
+        <v>5.32271942445</v>
+      </c>
+      <c r="S11">
+        <v>0.01310945145742485</v>
+      </c>
+      <c r="T11">
+        <v>0.01400731538059333</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" t="s">
+        <v>23</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.315325</v>
+      </c>
+      <c r="H12">
+        <v>0.945975</v>
+      </c>
+      <c r="I12">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J12">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.010998</v>
+      </c>
+      <c r="N12">
+        <v>0.032994</v>
+      </c>
+      <c r="O12">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P12">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q12">
+        <v>0.00346794435</v>
+      </c>
+      <c r="R12">
+        <v>0.03121149915</v>
+      </c>
+      <c r="S12">
+        <v>7.687153884927182E-05</v>
+      </c>
+      <c r="T12">
+        <v>8.21364564299471E-05</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.315325</v>
+      </c>
+      <c r="H13">
+        <v>0.945975</v>
+      </c>
+      <c r="I13">
+        <v>0.01433167956883957</v>
+      </c>
+      <c r="J13">
+        <v>0.01490531972629706</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.163866</v>
+      </c>
+      <c r="N13">
+        <v>0.327732</v>
+      </c>
+      <c r="O13">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P13">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q13">
+        <v>0.05167104645000001</v>
+      </c>
+      <c r="R13">
+        <v>0.3100262787</v>
+      </c>
+      <c r="S13">
+        <v>0.001145356572565446</v>
+      </c>
+      <c r="T13">
+        <v>0.00081586788927379</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>2.5402755</v>
+      </c>
+      <c r="H14">
+        <v>5.080551</v>
+      </c>
+      <c r="I14">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J14">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1.875567333333333</v>
+      </c>
+      <c r="N14">
+        <v>5.626702</v>
+      </c>
+      <c r="O14">
+        <v>0.9147184316015459</v>
+      </c>
+      <c r="P14">
+        <v>0.9397527619538806</v>
+      </c>
+      <c r="Q14">
+        <v>4.764457745467</v>
+      </c>
+      <c r="R14">
+        <v>28.586746472802</v>
+      </c>
+      <c r="S14">
+        <v>0.1056104601783418</v>
+      </c>
+      <c r="T14">
+        <v>0.0752291341358797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>2.5402755</v>
+      </c>
+      <c r="H15">
+        <v>5.080551</v>
+      </c>
+      <c r="I15">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J15">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.010998</v>
+      </c>
+      <c r="N15">
+        <v>0.032994</v>
+      </c>
+      <c r="O15">
+        <v>0.005363749481003509</v>
+      </c>
+      <c r="P15">
+        <v>0.005510546431623061</v>
+      </c>
+      <c r="Q15">
+        <v>0.027937949949</v>
+      </c>
+      <c r="R15">
+        <v>0.167627699694</v>
+      </c>
+      <c r="S15">
+        <v>0.0006192813344520839</v>
+      </c>
+      <c r="T15">
+        <v>0.0004411305328910639</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" t="s">
+        <v>24</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>2.5402755</v>
+      </c>
+      <c r="H16">
+        <v>5.080551</v>
+      </c>
+      <c r="I16">
+        <v>0.1154567969002575</v>
+      </c>
+      <c r="J16">
+        <v>0.08005204898729699</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.163866</v>
+      </c>
+      <c r="N16">
+        <v>0.327732</v>
+      </c>
+      <c r="O16">
+        <v>0.07991781891745053</v>
+      </c>
+      <c r="P16">
+        <v>0.05473669161449624</v>
+      </c>
+      <c r="Q16">
+        <v>0.416264785083</v>
+      </c>
+      <c r="R16">
+        <v>1.665059140332</v>
+      </c>
+      <c r="S16">
+        <v>0.009227055387463648</v>
+      </c>
+      <c r="T16">
+        <v>0.004381784318526222</v>
       </c>
     </row>
   </sheetData>
